--- a/FMEA_Infrastructure.xlsx
+++ b/FMEA_Infrastructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anc/WorkDocs/Thought Leading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anc/WorkDocs/Thought Leading/Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0791A9-498E-7B42-95F2-98D7EF28F4C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782BF20A-A3D2-6046-BC76-951A0B08114D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,10 @@
     <sheet name="Probability" sheetId="4" r:id="rId3"/>
     <sheet name="Detectability" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$P$19</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -1290,11 +1293,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection sqref="A1:P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1409,7 +1413,7 @@
       </c>
       <c r="M4" s="87">
         <f ca="1">NOW()</f>
-        <v>43445.387481018515</v>
+        <v>43780.292218750001</v>
       </c>
       <c r="N4" s="88"/>
       <c r="O4" s="88"/>
@@ -1949,6 +1953,7 @@
     <mergeCell ref="A12:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="59" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
